--- a/XLSX transformados/Jornada 4 - Visita vs Unión Comercio_posicion_jugadores.xlsx
+++ b/XLSX transformados/Jornada 4 - Visita vs Unión Comercio_posicion_jugadores.xlsx
@@ -503,43 +503,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ricardo Lagos</t>
+          <t>Franco Zanelatto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ricardo-lagos</t>
+          <t>franco-zanelatto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R. Lagos</t>
+          <t>F. Zanelatto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>91</v>
+        <v>330</v>
       </c>
       <c r="G2" t="n">
-        <v>973682</v>
+        <v>973650</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>57.991836734694</v>
+        <v>86.433333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>81.477551020408</v>
+        <v>79.666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -550,47 +550,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ángel De la Cruz</t>
+          <t>Ricardo Lagos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>angel-de-la-cruz</t>
+          <t>ricardo-lagos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Á. D. l. Cruz</t>
+          <t>R. Lagos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="G3" t="n">
-        <v>1109887</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Ángel De la Cruz</t>
-        </is>
-      </c>
+        <v>973682</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>8.921739130434799</v>
+        <v>57.991836734694</v>
       </c>
       <c r="K3" t="n">
-        <v>51.747826086957</v>
+        <v>81.477551020408</v>
       </c>
       <c r="L3" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -601,47 +597,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Catriel Cabellos</t>
+          <t>Ángel De la Cruz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cabellos-catriel</t>
+          <t>angel-de-la-cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C. Cabellos</t>
+          <t>Á. D. l. Cruz</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>316</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>1415942</v>
+        <v>1109887</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Catriel Cabellos</t>
+          <t>Ángel De la Cruz</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>45.54358974359</v>
+        <v>8.921739130434799</v>
       </c>
       <c r="K4" t="n">
-        <v>19.328205128205</v>
+        <v>51.747826086957</v>
       </c>
       <c r="L4" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -652,17 +648,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jesús Castillo</t>
+          <t>Catriel Cabellos</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jesus-castillo</t>
+          <t>cabellos-catriel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J. Castillo</t>
+          <t>C. Cabellos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -671,24 +667,28 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="G5" t="n">
-        <v>913398</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>1415942</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Catriel Cabellos</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>51.546153846154</v>
+        <v>45.54358974359</v>
       </c>
       <c r="K5" t="n">
-        <v>39.507692307692</v>
+        <v>19.328205128205</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -699,43 +699,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Juan Freytes</t>
+          <t>Jesús Castillo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>juan-freytes</t>
+          <t>jesus-castillo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>J. Freytes</t>
+          <t>J. Castillo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G6" t="n">
-        <v>962187</v>
+        <v>913398</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>39.205172413793</v>
+        <v>51.546153846154</v>
       </c>
       <c r="K6" t="n">
-        <v>64.524137931035</v>
+        <v>39.507692307692</v>
       </c>
       <c r="L6" t="n">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -746,43 +746,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aldair Fuentes</t>
+          <t>Juan Freytes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>aldair-fuentes</t>
+          <t>juan-freytes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A. Fuentes</t>
+          <t>J. Freytes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>876927</v>
+        <v>962187</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>29.65</v>
+        <v>39.205172413793</v>
       </c>
       <c r="K7" t="n">
-        <v>88.65000000000001</v>
+        <v>64.524137931035</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -793,17 +793,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Franco Zanelatto</t>
+          <t>Aldair Fuentes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>franco-zanelatto</t>
+          <t>aldair-fuentes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>F. Zanelatto</t>
+          <t>A. Fuentes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -812,24 +812,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>317</v>
+        <v>132</v>
       </c>
       <c r="G8" t="n">
-        <v>973650</v>
+        <v>876927</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>86.433333333333</v>
+        <v>29.65</v>
       </c>
       <c r="K8" t="n">
-        <v>79.666666666667</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G9" t="n">
         <v>47418</v>
@@ -956,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="G11" t="n">
         <v>31175</v>
@@ -1003,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G12" t="n">
         <v>159931</v>
@@ -1050,7 +1050,7 @@
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13" t="n">
         <v>981374</v>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" t="n">
         <v>874985</v>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G15" t="n">
         <v>789372</v>
@@ -1191,7 +1191,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="G16" t="n">
         <v>590312</v>

--- a/XLSX transformados/Jornada 4 - Visita vs Unión Comercio_posicion_jugadores.xlsx
+++ b/XLSX transformados/Jornada 4 - Visita vs Unión Comercio_posicion_jugadores.xlsx
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G2" t="n">
         <v>973650</v>
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" t="n">
         <v>973682</v>
@@ -619,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
         <v>1109887</v>
@@ -670,7 +670,7 @@
         <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G5" t="n">
         <v>1415942</v>
@@ -721,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="n">
         <v>913398</v>
@@ -768,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>962187</v>
@@ -815,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" t="n">
         <v>876927</v>
@@ -956,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G11" t="n">
         <v>31175</v>
@@ -1003,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G12" t="n">
         <v>159931</v>
@@ -1050,7 +1050,7 @@
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G13" t="n">
         <v>981374</v>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G15" t="n">
         <v>789372</v>
